--- a/Users.xlsx
+++ b/Users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="8_{3ABA4EC0-EF3E-4CCD-852E-641CA4A9B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790595A3-466F-49F3-A21B-96BAF67491BA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="27300" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{5CB80D81-44BB-487E-8F69-E38C97C8D394}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CB80D81-44BB-487E-8F69-E38C97C8D394}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
